--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40206.4604864734</v>
+        <v>8001085.636808203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40206.4604864734</v>
+        <v>8001085.636808203</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39950.20487642465</v>
+        <v>3758126.085304381</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39950.20487642465</v>
+        <v>3758126.085304381</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419986442.792182</v>
+        <v>56794610.72091558</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13442.65811352582</v>
+        <v>1452209.932456644</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24945.31461387807</v>
+        <v>2584597.056814245</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36447.97111423016</v>
+        <v>3716984.181171849</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48450.61627596414</v>
+        <v>4848621.343023901</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60453.26143769812</v>
+        <v>5980258.504875951</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72455.9065994321</v>
+        <v>7111895.666727999</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84458.55176116608</v>
+        <v>8243532.828580044</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96461.19692290004</v>
+        <v>9375169.990432089</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109072.3630768509</v>
+        <v>10343113.33085227</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121864.7203419129</v>
+        <v>11347113.70238356</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>134657.0533592277</v>
+        <v>12351114.07391486</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147449.3863765425</v>
+        <v>13355114.44544616</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160241.7193938573</v>
+        <v>14359114.81697746</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173034.0524111722</v>
+        <v>15363115.18850877</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185826.3854284871</v>
+        <v>16367115.56004007</v>
       </c>
     </row>
   </sheetData>
